--- a/grain_supplychain.xlsx
+++ b/grain_supplychain.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A586B28-2311-45AC-8D25-561253566F3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28A4766E-4135-45D0-A4BC-607C87F62997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18530" yWindow="2920" windowWidth="16130" windowHeight="15370" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18410" yWindow="3950" windowWidth="16130" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -601,8 +601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -738,7 +738,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B6F614C-B05A-4C33-B11C-8055953FF26F}">
   <dimension ref="B2:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>

--- a/grain_supplychain.xlsx
+++ b/grain_supplychain.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28A4766E-4135-45D0-A4BC-607C87F62997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{532638E8-C9ED-45A3-AAEF-EA37398E534E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18410" yWindow="3950" windowWidth="16130" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18860" yWindow="4020" windowWidth="19470" windowHeight="16700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -23,10 +23,21 @@
     <sheet name="Launches" sheetId="8" r:id="rId8"/>
     <sheet name="Foreign" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -602,7 +613,7 @@
   <dimension ref="A1:AC5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/grain_supplychain.xlsx
+++ b/grain_supplychain.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{532638E8-C9ED-45A3-AAEF-EA37398E534E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6915614-027B-4C3B-A041-6ED61FEF9A19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18860" yWindow="4020" windowWidth="19470" windowHeight="16700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19080" yWindow="5060" windowWidth="19180" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
   <si>
     <t>Name</t>
   </si>
@@ -215,6 +215,9 @@
   </si>
   <si>
     <t>Developments w/ canals, trade</t>
+  </si>
+  <si>
+    <t>Louis Dreyfus</t>
   </si>
 </sst>
 </file>
@@ -610,10 +613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC5"/>
+  <dimension ref="A1:AC6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -733,6 +736,11 @@
       </c>
       <c r="C5" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1175,7 +1183,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41CBACED-B0C2-4B17-8994-5B04EC45CA8D}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>

--- a/grain_supplychain.xlsx
+++ b/grain_supplychain.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6915614-027B-4C3B-A041-6ED61FEF9A19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4338D69B-8E97-42D7-B1FD-988009635876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19080" yWindow="5060" windowWidth="19180" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3440" yWindow="4110" windowWidth="16820" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="59">
   <si>
     <t>Name</t>
   </si>
@@ -218,6 +218,9 @@
   </si>
   <si>
     <t>Louis Dreyfus</t>
+  </si>
+  <si>
+    <t>private</t>
   </si>
 </sst>
 </file>
@@ -613,10 +616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC6"/>
+  <dimension ref="A1:AC7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -741,6 +744,14 @@
     <row r="6" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/grain_supplychain.xlsx
+++ b/grain_supplychain.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4338D69B-8E97-42D7-B1FD-988009635876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA80BF1-22B6-4BA1-83EA-9BEE4B82A8C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3440" yWindow="4110" windowWidth="16820" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2500" yWindow="4860" windowWidth="16820" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="62">
   <si>
     <t>Name</t>
   </si>
@@ -221,6 +221,15 @@
   </si>
   <si>
     <t>private</t>
+  </si>
+  <si>
+    <t>GrainCorp</t>
+  </si>
+  <si>
+    <t>Adecoagro</t>
+  </si>
+  <si>
+    <t>Alico - Citrus</t>
   </si>
 </sst>
 </file>
@@ -616,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC7"/>
+  <dimension ref="A1:AC12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -752,6 +761,21 @@
       </c>
       <c r="C7" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
